--- a/data/trans_orig/P14A20-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A20-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EBD5B52-7D41-4C03-ADD9-0AF2F62771BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC967988-9B7C-4C1A-A46E-FC1940A07FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FDE1C38E-8E30-468F-8DF6-BEBE634AC566}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3556E167-3B84-4AA5-A4F7-4D9E7E53285E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="181">
   <si>
     <t>Población que recibe medicación o terapia por hemorroides en 2012 (Tasa respuesta: 1,2%)</t>
   </si>
@@ -114,19 +114,19 @@
     <t>47,81%</t>
   </si>
   <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
   </si>
   <si>
     <t>62,29%</t>
   </si>
   <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -135,19 +135,19 @@
     <t>52,19%</t>
   </si>
   <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
   </si>
   <si>
     <t>37,71%</t>
   </si>
   <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -156,55 +156,55 @@
     <t>32,94%</t>
   </si>
   <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
   </si>
   <si>
     <t>28,14%</t>
   </si>
   <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
   </si>
   <si>
     <t>30,37%</t>
   </si>
   <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
   </si>
   <si>
     <t>67,06%</t>
   </si>
   <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
   </si>
   <si>
     <t>71,86%</t>
   </si>
   <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
   </si>
   <si>
     <t>69,63%</t>
   </si>
   <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -225,10 +225,10 @@
     <t>56,74%</t>
   </si>
   <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
   </si>
   <si>
     <t>25,71%</t>
@@ -246,10 +246,10 @@
     <t>43,26%</t>
   </si>
   <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -261,19 +261,19 @@
     <t>33,1%</t>
   </si>
   <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
   </si>
   <si>
     <t>36,27%</t>
   </si>
   <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
   </si>
   <si>
     <t>49,01%</t>
@@ -282,73 +282,73 @@
     <t>66,9%</t>
   </si>
   <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
   </si>
   <si>
     <t>63,73%</t>
   </si>
   <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
   </si>
   <si>
     <t>48,28%</t>
   </si>
   <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
   </si>
   <si>
     <t>39,34%</t>
   </si>
   <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
   </si>
   <si>
     <t>42,2%</t>
   </si>
   <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
   </si>
   <si>
     <t>51,72%</t>
   </si>
   <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
   </si>
   <si>
     <t>60,66%</t>
   </si>
   <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
   </si>
   <si>
     <t>57,8%</t>
   </si>
   <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -390,31 +390,25 @@
     <t>22,37%</t>
   </si>
   <si>
-    <t>68,0%</t>
-  </si>
-  <si>
     <t>17,35%</t>
   </si>
   <si>
     <t>52,11%</t>
   </si>
   <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
   </si>
   <si>
     <t>55,62%</t>
   </si>
   <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
   </si>
   <si>
     <t>82,65%</t>
@@ -423,169 +417,169 @@
     <t>47,89%</t>
   </si>
   <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
   </si>
   <si>
     <t>44,38%</t>
   </si>
   <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
   </si>
   <si>
     <t>74,0%</t>
   </si>
   <si>
-    <t>30,0%</t>
+    <t>30,84%</t>
   </si>
   <si>
     <t>63,69%</t>
   </si>
   <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
   </si>
   <si>
     <t>26,0%</t>
   </si>
   <si>
-    <t>70,0%</t>
+    <t>69,16%</t>
   </si>
   <si>
     <t>36,31%</t>
   </si>
   <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
   </si>
   <si>
     <t>26,83%</t>
   </si>
   <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
   </si>
   <si>
     <t>22,44%</t>
   </si>
   <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
   </si>
   <si>
     <t>24,47%</t>
   </si>
   <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
   </si>
   <si>
     <t>73,17%</t>
   </si>
   <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
   </si>
   <si>
     <t>77,56%</t>
   </si>
   <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
   </si>
   <si>
     <t>75,53%</t>
   </si>
   <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
   </si>
   <si>
     <t>46,83%</t>
   </si>
   <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
   </si>
   <si>
     <t>44,09%</t>
   </si>
   <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
   </si>
   <si>
     <t>45,25%</t>
   </si>
   <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
   </si>
   <si>
     <t>53,17%</t>
   </si>
   <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
   </si>
   <si>
     <t>55,91%</t>
   </si>
   <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
   </si>
   <si>
     <t>54,75%</t>
   </si>
   <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
   </si>
 </sst>
 </file>
@@ -997,7 +991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFCEB5E-2F38-4E35-9D1F-751350E49E6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7AAA71-AEFF-4F82-BAC5-10764EBEB2CB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2060,7 +2054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39195233-E43C-4460-A37C-5D74903F4AA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9E94DA-2795-4ADF-BCB0-8B744B014B63}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2488,10 +2482,10 @@
         <v>3840</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>14</v>
@@ -2503,13 +2497,13 @@
         <v>10359</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -2518,13 +2512,13 @@
         <v>14198</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2539,13 +2533,13 @@
         <v>1807</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -2554,13 +2548,13 @@
         <v>9520</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -2569,13 +2563,13 @@
         <v>11328</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,10 +2640,10 @@
         <v>61</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -2658,10 +2652,10 @@
         <v>5640</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>14</v>
@@ -2673,13 +2667,13 @@
         <v>12057</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,10 +2691,10 @@
         <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2709,13 +2703,13 @@
         <v>1982</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -2724,13 +2718,13 @@
         <v>6873</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,13 +2792,13 @@
         <v>3306</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2813,13 +2807,13 @@
         <v>3215</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -2828,13 +2822,13 @@
         <v>6521</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,13 +2843,13 @@
         <v>9015</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -2864,13 +2858,13 @@
         <v>11109</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -2879,13 +2873,13 @@
         <v>20124</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,13 +2947,13 @@
         <v>15705</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -2968,13 +2962,13 @@
         <v>20260</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M19" s="7">
         <v>32</v>
@@ -2983,13 +2977,13 @@
         <v>35965</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,13 +2998,13 @@
         <v>17828</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H20" s="7">
         <v>22</v>
@@ -3019,13 +3013,13 @@
         <v>25690</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M20" s="7">
         <v>38</v>
@@ -3034,13 +3028,13 @@
         <v>43518</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A20-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A20-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC967988-9B7C-4C1A-A46E-FC1940A07FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DCEBA45-93DF-4DCC-B2BF-D28EBD47CE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3556E167-3B84-4AA5-A4F7-4D9E7E53285E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CC6F0B43-890C-4FEE-A800-BB68376C8B6F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="185">
   <si>
     <t>Población que recibe medicación o terapia por hemorroides en 2012 (Tasa respuesta: 1,2%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -105,7 +105,7 @@
     <t>63,8%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -114,19 +114,19 @@
     <t>47,81%</t>
   </si>
   <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
   </si>
   <si>
     <t>62,29%</t>
   </si>
   <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -135,121 +135,127 @@
     <t>52,19%</t>
   </si>
   <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
   </si>
   <si>
     <t>37,71%</t>
   </si>
   <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>32,94%</t>
   </si>
   <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
   </si>
   <si>
     <t>28,14%</t>
   </si>
   <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
   </si>
   <si>
     <t>30,37%</t>
   </si>
   <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
   </si>
   <si>
     <t>67,06%</t>
   </si>
   <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
   </si>
   <si>
     <t>71,86%</t>
   </si>
   <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
   </si>
   <si>
     <t>69,63%</t>
   </si>
   <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>74,29%</t>
   </si>
   <si>
+    <t>23,15%</t>
+  </si>
+  <si>
     <t>51,19%</t>
   </si>
   <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
   </si>
   <si>
     <t>56,74%</t>
   </si>
   <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
   </si>
   <si>
     <t>25,71%</t>
   </si>
   <si>
+    <t>76,85%</t>
+  </si>
+  <si>
     <t>48,81%</t>
   </si>
   <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
   </si>
   <si>
     <t>43,26%</t>
   </si>
   <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -261,19 +267,19 @@
     <t>33,1%</t>
   </si>
   <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
   </si>
   <si>
     <t>36,27%</t>
   </si>
   <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
   </si>
   <si>
     <t>49,01%</t>
@@ -282,304 +288,310 @@
     <t>66,9%</t>
   </si>
   <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
   </si>
   <si>
     <t>63,73%</t>
   </si>
   <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
   </si>
   <si>
     <t>48,28%</t>
   </si>
   <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
   </si>
   <si>
     <t>39,34%</t>
   </si>
   <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
   </si>
   <si>
     <t>42,2%</t>
   </si>
   <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por hemorroides en 2016 (Tasa respuesta: 1,07%)</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
     <t>32,0%</t>
   </si>
   <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por hemorroides en 2015 (Tasa respuesta: 1,07%)</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
+    <t>67,45%</t>
   </si>
   <si>
     <t>47,89%</t>
   </si>
   <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
   </si>
   <si>
     <t>44,38%</t>
   </si>
   <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
   </si>
   <si>
     <t>74,0%</t>
   </si>
   <si>
-    <t>30,84%</t>
+    <t>30,99%</t>
   </si>
   <si>
     <t>63,69%</t>
   </si>
   <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
   </si>
   <si>
     <t>26,0%</t>
   </si>
   <si>
-    <t>69,16%</t>
+    <t>69,01%</t>
   </si>
   <si>
     <t>36,31%</t>
   </si>
   <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
   </si>
   <si>
     <t>26,83%</t>
   </si>
   <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
   </si>
   <si>
     <t>22,44%</t>
   </si>
   <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
   </si>
   <si>
     <t>24,47%</t>
   </si>
   <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
   </si>
   <si>
     <t>73,17%</t>
   </si>
   <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
   </si>
   <si>
     <t>77,56%</t>
   </si>
   <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
   </si>
   <si>
     <t>75,53%</t>
   </si>
   <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
   </si>
   <si>
     <t>46,83%</t>
   </si>
   <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
   </si>
   <si>
     <t>44,09%</t>
   </si>
   <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
   </si>
   <si>
     <t>45,25%</t>
   </si>
   <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
   </si>
   <si>
     <t>53,17%</t>
   </si>
   <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
   </si>
   <si>
     <t>55,91%</t>
   </si>
   <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
   </si>
   <si>
     <t>54,75%</t>
   </si>
   <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
   </si>
 </sst>
 </file>
@@ -991,7 +1003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7AAA71-AEFF-4F82-BAC5-10764EBEB2CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856253D3-76B7-4802-A335-6B075789C742}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1583,7 +1595,7 @@
         <v>57</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>14</v>
@@ -1595,13 +1607,13 @@
         <v>6604</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -1610,13 +1622,13 @@
         <v>9633</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1631,13 +1643,13 @@
         <v>1048</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -1646,13 +1658,13 @@
         <v>6297</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -1661,13 +1673,13 @@
         <v>7345</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1723,7 +1735,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1735,7 +1747,7 @@
         <v>2022</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
@@ -1750,13 +1762,13 @@
         <v>6094</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -1765,13 +1777,13 @@
         <v>8116</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1786,7 +1798,7 @@
         <v>1943</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
@@ -1801,13 +1813,13 @@
         <v>12315</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -1816,13 +1828,13 @@
         <v>14258</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1890,13 +1902,13 @@
         <v>12615</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -1905,13 +1917,13 @@
         <v>21946</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M19" s="7">
         <v>33</v>
@@ -1920,13 +1932,13 @@
         <v>34562</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1941,13 +1953,13 @@
         <v>13513</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H20" s="7">
         <v>32</v>
@@ -1956,13 +1968,13 @@
         <v>33835</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M20" s="7">
         <v>45</v>
@@ -1971,13 +1983,13 @@
         <v>47347</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2033,7 +2045,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2054,7 +2066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9E94DA-2795-4ADF-BCB0-8B744B014B63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E102E3-9F6A-4A85-857D-333B86491B1F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2071,7 +2083,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2178,7 +2190,7 @@
         <v>2143</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
@@ -2191,13 +2203,13 @@
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2206,7 +2218,7 @@
         <v>2143</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
@@ -2227,7 +2239,7 @@
         <v>1059</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
@@ -2240,13 +2252,13 @@
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2255,7 +2267,7 @@
         <v>1059</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
@@ -2289,13 +2301,13 @@
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -2342,13 +2354,13 @@
         <v>1046</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2357,13 +2369,13 @@
         <v>1046</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,10 +2405,10 @@
         <v>3079</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>14</v>
@@ -2408,10 +2420,10 @@
         <v>4135</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>14</v>
@@ -2482,10 +2494,10 @@
         <v>3840</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>14</v>
@@ -2497,13 +2509,13 @@
         <v>10359</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -2512,13 +2524,13 @@
         <v>14198</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,13 +2545,13 @@
         <v>1807</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -2548,13 +2560,13 @@
         <v>9520</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -2563,13 +2575,13 @@
         <v>11328</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,13 +2649,13 @@
         <v>6416</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -2652,10 +2664,10 @@
         <v>5640</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>14</v>
@@ -2667,13 +2679,13 @@
         <v>12057</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,13 +2700,13 @@
         <v>4892</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2703,13 +2715,13 @@
         <v>1982</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -2718,13 +2730,13 @@
         <v>6873</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2780,7 +2792,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2792,13 +2804,13 @@
         <v>3306</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2807,13 +2819,13 @@
         <v>3215</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -2822,13 +2834,13 @@
         <v>6521</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,13 +2855,13 @@
         <v>9015</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -2858,13 +2870,13 @@
         <v>11109</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -2873,13 +2885,13 @@
         <v>20124</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,13 +2959,13 @@
         <v>15705</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -2962,13 +2974,13 @@
         <v>20260</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M19" s="7">
         <v>32</v>
@@ -2977,13 +2989,13 @@
         <v>35965</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,13 +3010,13 @@
         <v>17828</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H20" s="7">
         <v>22</v>
@@ -3013,13 +3025,13 @@
         <v>25690</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M20" s="7">
         <v>38</v>
@@ -3028,13 +3040,13 @@
         <v>43518</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3090,7 +3102,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
